--- a/Data/SPIV_Setting _V02.xlsx
+++ b/Data/SPIV_Setting _V02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wistron-my.sharepoint.com/personal/tairong_chen_wistron_com/Documents/SIV-POWER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wistron-my.sharepoint.com/personal/tairong_chen_wistron_com/Documents/SIV-POWER/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{113C523D-BF3B-46E1-9A77-60913E93F4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56E290EB-1A8A-49D3-9092-4C3F40E45C48}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{113C523D-BF3B-46E1-9A77-60913E93F4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484AC377-9C42-47AC-9DD9-69B3ECA1CE9A}"/>
   <bookViews>
-    <workbookView xWindow="3287" yWindow="453" windowWidth="21600" windowHeight="10607" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="907" yWindow="680" windowWidth="22820" windowHeight="11167" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regulation" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="66">
   <si>
     <t>Imax</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,6 +373,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="11">
@@ -742,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,6 +806,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,10 +941,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1234,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1247,16 +1253,16 @@
     <col min="3" max="3" width="16.52734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.76171875" style="1"/>
     <col min="5" max="5" width="16.1171875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.87890625" customWidth="1"/>
-    <col min="7" max="7" width="14.52734375" customWidth="1"/>
-    <col min="8" max="8" width="14.41015625" customWidth="1"/>
+    <col min="6" max="6" width="17.52734375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="16.87890625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="13.87890625" customWidth="1"/>
     <col min="9" max="9" width="16.52734375" customWidth="1"/>
     <col min="10" max="10" width="17.234375" customWidth="1"/>
     <col min="11" max="11" width="12.3515625" customWidth="1"/>
     <col min="12" max="12" width="11.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1273,43 +1279,49 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1341,13 +1353,19 @@
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1373,19 +1391,25 @@
         <v>4.75</v>
       </c>
       <c r="I3" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="K3" s="3">
         <v>70</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M3" s="3">
         <v>0.1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N3" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1411,19 +1435,25 @@
         <v>4.75</v>
       </c>
       <c r="I4" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="K4" s="3">
         <v>70</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="M4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1449,19 +1479,25 @@
         <v>4.75</v>
       </c>
       <c r="I5" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="K5" s="3">
         <v>70</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <v>0.1</v>
       </c>
-      <c r="L5" s="3">
+      <c r="N5" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1487,15 +1523,21 @@
         <v>4.75</v>
       </c>
       <c r="I6" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="K6" s="3">
         <v>70</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="N6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1508,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1521,12 +1563,14 @@
     <col min="3" max="3" width="11.87890625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.41015625" customWidth="1"/>
-    <col min="6" max="6" width="12.41015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.52734375" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.76171875" customWidth="1"/>
+    <col min="7" max="7" width="12.41015625" customWidth="1"/>
+    <col min="8" max="8" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.52734375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1543,31 +1587,37 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1587,13 +1637,19 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1613,13 +1669,19 @@
         <v>4.75</v>
       </c>
       <c r="G3" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1639,9 +1701,15 @@
         <v>4.75</v>
       </c>
       <c r="G4" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -1654,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1668,12 +1736,12 @@
     <col min="4" max="4" width="11.87890625" customWidth="1"/>
     <col min="5" max="5" width="9.1171875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.64453125" customWidth="1"/>
-    <col min="8" max="8" width="10.1171875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.1171875" customWidth="1"/>
     <col min="9" max="9" width="10.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.6" customHeight="1">
+    <row r="1" spans="1:16" ht="24.6" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1693,31 +1761,37 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1738,13 +1812,19 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1767,13 +1847,19 @@
         <v>4.75</v>
       </c>
       <c r="H3" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="J3" s="3">
         <v>0.1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1796,13 +1882,19 @@
         <v>4.75</v>
       </c>
       <c r="H4" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1825,13 +1917,19 @@
         <v>4.75</v>
       </c>
       <c r="H5" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1854,9 +1952,15 @@
         <v>4.75</v>
       </c>
       <c r="H6" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
     </row>
